--- a/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:22:41+00:00</t>
+    <t>2025-08-01T06:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:26:01+00:00</t>
+    <t>2025-08-01T06:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:39:39+00:00</t>
+    <t>2025-12-19T08:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -568,7 +568,11 @@
     <t>Commentaire relatif au séjour</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaire</t>
@@ -735,20 +739,14 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-encounter-identifier"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-encounter-identifier-cs"/&gt;
     &lt;code value="SEJ"/&gt;
     &lt;display value="Identifiant du séjour"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -773,6 +771,9 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-sejour.esante.gouv.fr</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -845,7 +846,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -961,6 +962,9 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
@@ -1030,7 +1034,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1054,7 +1058,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1119,7 +1123,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1145,7 +1149,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1200,7 +1204,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1230,7 +1234,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1259,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1401,7 +1405,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1419,7 +1423,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1458,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1489,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1507,7 +1511,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1564,7 +1568,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1589,7 +1593,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1634,7 +1638,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1655,7 +1659,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1676,7 +1680,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1712,7 +1716,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1748,7 +1752,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1804,7 +1808,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1841,7 +1845,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -2197,8 +2201,8 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4735,31 +4739,29 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4786,15 +4788,15 @@
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4802,7 +4804,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4820,16 +4822,16 @@
         <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4839,46 +4841,46 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="T23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4899,21 +4901,21 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4921,7 +4923,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4939,13 +4941,13 @@
         <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4959,43 +4961,43 @@
         <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5016,21 +5018,21 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5053,13 +5055,13 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5110,7 +5112,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5131,21 +5133,21 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5168,16 +5170,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5227,7 +5229,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5248,21 +5250,21 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5288,13 +5290,13 @@
         <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5323,11 +5325,11 @@
         <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -5362,24 +5364,24 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5402,16 +5404,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5461,7 +5463,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5493,10 +5495,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5608,10 +5610,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5725,14 +5727,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5754,10 +5756,10 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>183</v>
@@ -5812,7 +5814,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5844,10 +5846,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5873,10 +5875,10 @@
         <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5906,11 +5908,11 @@
         <v>218</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>90</v>
@@ -5959,10 +5961,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5985,13 +5987,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6042,7 +6044,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -6074,10 +6076,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6100,13 +6102,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6133,7 +6135,7 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>302</v>
@@ -6157,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -6215,7 +6217,7 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>308</v>
@@ -6543,7 +6545,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6565,10 +6567,10 @@
         <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>183</v>
@@ -6623,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6681,7 +6683,7 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>314</v>
@@ -6714,7 +6716,7 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>302</v>
@@ -6796,7 +6798,7 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>317</v>
@@ -7605,7 +7607,7 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>368</v>
@@ -7933,7 +7935,7 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7955,10 +7957,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>183</v>
@@ -8013,7 +8015,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8106,7 +8108,7 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>378</v>
@@ -8188,7 +8190,7 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>385</v>
@@ -8533,7 +8535,7 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>404</v>
@@ -9469,7 +9471,7 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>454</v>
@@ -9797,7 +9799,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9819,10 +9821,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>183</v>
@@ -9877,7 +9879,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10399,7 +10401,7 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>485</v>
@@ -10729,7 +10731,7 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10751,10 +10753,10 @@
         <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>183</v>
@@ -10809,7 +10811,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11906,7 +11908,7 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>550</v>
@@ -12236,7 +12238,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12258,10 +12260,10 @@
         <v>135</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>183</v>
@@ -12316,7 +12318,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12723,7 +12725,7 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>578</v>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-encounter-sejour.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -504,7 +504,7 @@
     <t>TDDUIAdmissionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-admission-date|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>TDDUIEntryModelabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-entry-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>TDDUIExitModeLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exit-mode-label|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>TDDUIComment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-comment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1073,7 +1073,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1614,7 +1614,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1823,7 +1823,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2187,7 +2187,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2202,7 +2202,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.40234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
